--- a/dataset/nmr/test.xlsx
+++ b/dataset/nmr/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\NMR1H\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\LXappR 2024-11-01\dataset\nmr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEF8C59-1569-4704-9A18-4042E4FCE93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A990B1C-C565-423F-8B54-1F4164B5E5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="0" windowWidth="14400" windowHeight="7340" xr2:uid="{F734B7C0-65A1-43A3-A4E6-D102DA7E281F}"/>
+    <workbookView xWindow="3675" yWindow="2280" windowWidth="17715" windowHeight="13335" xr2:uid="{F734B7C0-65A1-43A3-A4E6-D102DA7E281F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LO2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,86 +422,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF2C10-6D86-40D8-B03B-4736981F96FA}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>1.5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>2.1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>2.5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>3.1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>3.5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>3.7</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="1">
         <v>4.7</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K3" s="1">
         <v>5.7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>1.3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>1.7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>2.7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>6.2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>6.8</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>7.1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="2">
         <v>7.3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J4" s="2">
         <v>8.1</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K4" s="2">
         <v>8.9</v>
       </c>
     </row>
